--- a/Results/evidence_test_gpt-3.5-turbo-1106alltest_eval.xlsx
+++ b/Results/evidence_test_gpt-3.5-turbo-1106alltest_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ques_id</t>
   </si>
@@ -31,52 +31,49 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>What is the name of the first animal to land on the moon?</t>
-  </si>
-  <si>
-    <t>What is the name of Leonardo DiCaprio's third child?</t>
-  </si>
-  <si>
-    <t>What year did the first human land on Mars?</t>
-  </si>
-  <si>
-    <t>What was the name of the Zodiac killer?</t>
-  </si>
-  <si>
-    <t>Why are all quickly verifiable problems also quickly solvable?</t>
-  </si>
-  <si>
-    <t>No animal has ever landed on the moon yet.</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio does not have any children.</t>
-  </si>
-  <si>
-    <t>No humans have been to Mars yet.</t>
-  </si>
-  <si>
-    <t>The Zodiac Killer has not been identified.</t>
-  </si>
-  <si>
-    <t>This is the P versus NP problem and it remains open.</t>
-  </si>
-  <si>
-    <t>The first animal to land on the moon was a Soviet space dog named Laika. She was launched into space on November 3, 1957, aboard the spacecraft Sputnik 2. Unfortunately, Laika did not survive the mission.</t>
-  </si>
-  <si>
-    <t>I am unable to provide the name of Leonardo DiCaprio's third child as I do not have access to the personal details of individuals, and it is important to respect their privacy. If this information has been publicly disclosed, I recommend verifying it from a reliable and official source.</t>
-  </si>
-  <si>
-    <t>As of my knowledge cutoff date in 2021, no human has landed on Mars, so there is no specific year for the first human landing on Mars. Multiple space agencies and private companies have plans for future crewed missions to Mars, but none have been carried out yet.</t>
-  </si>
-  <si>
-    <t>The Zodiac Killer's true identity remains unknown. The Zodiac Killer was a notorious serial killer who operated in Northern California during the late 1960s and early 1970s. Despite numerous theories and suspects, the killer was never definitively identified or apprehended.</t>
-  </si>
-  <si>
-    <t>Not all quickly verifiable problems are quickly solvable. Some problems may be easily verifiable but still require a complex or time-consuming process to solve. Verification and solvability are two distinct aspects of problem-solving, and a problem being quickly verifiable does not necessarily mean it is quickly solvable.</t>
-  </si>
-  <si>
-    <t>Incorrect</t>
+    <t>what did pete burns die of</t>
+  </si>
+  <si>
+    <t>what kind of fish is salmon</t>
+  </si>
+  <si>
+    <t>when did charlie brown come out</t>
+  </si>
+  <si>
+    <t>who owns the rights of the bible</t>
+  </si>
+  <si>
+    <t>who won the nobel peace prize for dna structure</t>
+  </si>
+  <si>
+    <t>Pete Burns died following a sudden cardiac arrest.</t>
+  </si>
+  <si>
+    <t>Salmon is a kind of ray-finned fish in the family Salmonidae.</t>
+  </si>
+  <si>
+    <t>Charlie Brown was first mentioned on May 30, 1948 and he officially debuted on October 2, 1950.</t>
+  </si>
+  <si>
+    <t>The original scripture of the bible is in the public domain but specific translations or commentary may be copyrighted.</t>
+  </si>
+  <si>
+    <t>James Watson, Francis Crick and Maurice Wilkins won The Nobel Prize in Physiology or Medicine for their discovery of the molecular structure of DNA, not Peace Prize.</t>
+  </si>
+  <si>
+    <t>Pete Burns, the lead singer of the band Dead or Alive, died of a cardiac arrest due to a massive heart attack in 2016.</t>
+  </si>
+  <si>
+    <t>Salmon is a type of fish that belongs to the family Salmonidae. It is known for its distinctive pink flesh and is considered a popular seafood around the world.</t>
+  </si>
+  <si>
+    <t>"Charlie Brown" refers to a popular comic strip created by Charles M. Schulz. The first "Peanuts" comic strip featuring Charlie Brown was published on October 2, 1950.</t>
+  </si>
+  <si>
+    <t>The Bible is a collection of religious texts and writings, and its ownership is not attributed to any single individual or organization. The rights to different translations and versions of the Bible may be held by various publishers or organizations. However, the original texts themselves are considered to be in the public domain and not owned by any one entity.</t>
+  </si>
+  <si>
+    <t>The Nobel Prize in Physiology or Medicine for the discovery of the structure of DNA was awarded to James Watson, Francis Crick, and Maurice Wilkins in 1962. However, it is important to note that the Nobel Prize is not given specifically for the DNA structure itself, but for the discoveries related to the molecular structure of nucleic acids and its significance.</t>
   </si>
   <si>
     <t>Correct</t>
@@ -491,7 +488,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -508,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -525,7 +522,7 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -542,7 +539,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
